--- a/biology/Origine et évolution du vivant/Basidiomycota_(classification_phylogénétique)/Basidiomycota_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Basidiomycota_(classification_phylogénétique)/Basidiomycota_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basidiomycota_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Basidiomycota_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Basidiomycota (Basidiomycètes s.l.), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Basidiomycota_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Basidiomycota_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -856,7 +870,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basidiomycota_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Basidiomycota_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -875,6 +889,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -882,7 +898,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basidiomycota_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Basidiomycota_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -902,17 +918,89 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-D. S. Hibbett et al. : « A higher-level phylogenetic classification of the Fungi », Mycol. Res., vol. 111, 2007, pp. 509-547
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D. S. Hibbett et al. : « A higher-level phylogenetic classification of the Fungi », Mycol. Res., vol. 111, 2007, pp. 509-547
 P. Brandon Matheny, Jasmin A. Gossmann, Polona Zalar, T.K. Arun Kumar et David S. Hibbett : « Resolving the phylogenetic position of the Wallemiomycetes: an enigmatic major lineage of Basidiomycota », Canadian Journal of Botany, vol. 84, n° 12, 2006, pp. 1794-1805
 Sina M. Adl et al. : « The New Higher Level Classification of Eukaryotes », J. Eukaryot. Microbiol., vol. 52, n° 5, 2005, pp. 399–451
-Thomas Cavalier-Smith : « A revised six-kingdom system of life », Biological reviews, vol. 73, 1998, pp. 203-266
-Autres sources bibliographiques
-Sources internet
-Assembling the Fungal Tree of Life
-mor
-Liens internes
-Arbre phylogénétique
+Thomas Cavalier-Smith : « A revised six-kingdom system of life », Biological reviews, vol. 73, 1998, pp. 203-266</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Basidiomycota_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Assembling the Fungal Tree of Life
+mor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Basidiomycota_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Basidiomycota -- Champignon
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
